--- a/tests/Feature/config/inheritance_zero.xlsx
+++ b/tests/Feature/config/inheritance_zero.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>private</t>
   </si>
@@ -112,7 +112,7 @@
     <t>Anskaffelsesverdi</t>
   </si>
   <si>
-    <t>Betalt (inkl kostnader)</t>
+    <t>Finans kostnader)</t>
   </si>
   <si>
     <t>Skattbar</t>
@@ -145,13 +145,10 @@
     <t>inheritance</t>
   </si>
   <si>
-    <t xml:space="preserve">000 Asset rule </t>
+    <t xml:space="preserve"> Asset rule: </t>
   </si>
   <si>
-    <t>00 Asset rule Using current amount: 1000000 * 1</t>
-  </si>
-  <si>
-    <t>000 Asset rule Using current amount: 1000000 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 1000000 * 1</t>
   </si>
 </sst>
 </file>
@@ -573,7 +570,7 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -805,13 +802,13 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -881,13 +878,13 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -957,13 +954,13 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1033,13 +1030,13 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1109,13 +1106,13 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1185,13 +1182,13 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -1261,13 +1258,13 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -1337,13 +1334,13 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -1413,13 +1410,13 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -1489,13 +1486,13 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -1565,13 +1562,13 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -1641,13 +1638,13 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -1717,13 +1714,13 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -1793,13 +1790,13 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -1869,13 +1866,13 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -1945,13 +1942,13 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -2021,13 +2018,13 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -2097,13 +2094,13 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -2173,13 +2170,13 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -2249,13 +2246,13 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -2325,13 +2322,13 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -2401,13 +2398,13 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -2477,13 +2474,13 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -2553,13 +2550,13 @@
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -2629,13 +2626,13 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -2705,13 +2702,13 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -2781,13 +2778,13 @@
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -2857,13 +2854,13 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -2933,13 +2930,13 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -3009,13 +3006,13 @@
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -3085,13 +3082,13 @@
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -3161,13 +3158,13 @@
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD37">
         <v>0</v>
@@ -3237,13 +3234,13 @@
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -3313,13 +3310,13 @@
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD39" s="7">
         <v>0</v>
@@ -3390,13 +3387,13 @@
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD40" s="10">
         <v>0</v>
@@ -3467,13 +3464,13 @@
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD41">
         <v>0</v>
@@ -3543,13 +3540,13 @@
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD42">
         <v>0</v>
@@ -3619,13 +3616,13 @@
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD43">
         <v>0</v>
@@ -3695,13 +3692,13 @@
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD44">
         <v>0</v>
@@ -3771,13 +3768,13 @@
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD45">
         <v>0</v>
@@ -3847,13 +3844,13 @@
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD46">
         <v>0</v>
@@ -3923,13 +3920,13 @@
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD47">
         <v>0</v>
@@ -3999,13 +3996,13 @@
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD48">
         <v>0</v>
@@ -4075,13 +4072,13 @@
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD49">
         <v>0</v>
@@ -4151,13 +4148,13 @@
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD50">
         <v>0</v>
@@ -4227,13 +4224,13 @@
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD51">
         <v>0</v>
@@ -4285,10 +4282,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S52" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T52" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U52" s="6">
         <v>1000000</v>
@@ -4303,13 +4300,13 @@
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD52">
         <v>0</v>
@@ -4361,10 +4358,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S53" s="13">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T53" s="13">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U53" s="13">
         <v>1000000</v>
@@ -4379,13 +4376,13 @@
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0</v>
@@ -4438,10 +4435,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S54" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T54" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U54" s="6">
         <v>1000000</v>
@@ -4456,13 +4453,13 @@
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD54">
         <v>0</v>
@@ -4514,10 +4511,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S55" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T55" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U55" s="6">
         <v>1000000</v>
@@ -4532,13 +4529,13 @@
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD55">
         <v>0</v>
@@ -4590,10 +4587,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S56" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T56" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U56" s="6">
         <v>1000000</v>
@@ -4608,13 +4605,13 @@
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD56">
         <v>0</v>
@@ -4666,10 +4663,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S57" s="13">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T57" s="13">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U57" s="13">
         <v>1000000</v>
@@ -4684,13 +4681,13 @@
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0</v>
@@ -4743,10 +4740,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S58" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T58" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U58" s="6">
         <v>1000000</v>
@@ -4761,13 +4758,13 @@
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD58">
         <v>0</v>
@@ -4819,10 +4816,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S59" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T59" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U59" s="6">
         <v>1000000</v>
@@ -4837,13 +4834,13 @@
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD59">
         <v>0</v>
@@ -4895,10 +4892,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S60" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T60" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U60" s="6">
         <v>1000000</v>
@@ -4913,13 +4910,13 @@
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD60">
         <v>0</v>
@@ -4971,10 +4968,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S61" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T61" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U61" s="6">
         <v>1000000</v>
@@ -4989,13 +4986,13 @@
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD61">
         <v>0</v>
@@ -5047,10 +5044,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S62" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U62" s="6">
         <v>1000000</v>
@@ -5065,13 +5062,13 @@
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD62">
         <v>0</v>
@@ -5123,10 +5120,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S63" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T63" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U63" s="6">
         <v>1000000</v>
@@ -5141,13 +5138,13 @@
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD63">
         <v>0</v>
@@ -5199,10 +5196,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S64" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T64" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U64" s="6">
         <v>1000000</v>
@@ -5217,13 +5214,13 @@
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD64">
         <v>0</v>
@@ -5275,10 +5272,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S65" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T65" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U65" s="6">
         <v>1000000</v>
@@ -5293,13 +5290,13 @@
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD65">
         <v>0</v>
@@ -5351,10 +5348,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S66" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T66" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U66" s="6">
         <v>1000000</v>
@@ -5369,13 +5366,13 @@
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD66">
         <v>0</v>
@@ -5427,10 +5424,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S67" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T67" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U67" s="6">
         <v>1000000</v>
@@ -5445,13 +5442,13 @@
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD67">
         <v>0</v>
@@ -5503,10 +5500,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S68" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T68" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U68" s="6">
         <v>1000000</v>
@@ -5521,13 +5518,13 @@
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD68">
         <v>0</v>
@@ -5579,10 +5576,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S69" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T69" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U69" s="6">
         <v>1000000</v>
@@ -5597,13 +5594,13 @@
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD69">
         <v>0</v>
@@ -5655,10 +5652,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S70" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U70" s="6">
         <v>1000000</v>
@@ -5673,13 +5670,13 @@
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -5731,10 +5728,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S71" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T71" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U71" s="6">
         <v>1000000</v>
@@ -5749,13 +5746,13 @@
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD71">
         <v>0</v>
@@ -5807,10 +5804,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S72" s="5">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T72" s="5">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U72" s="5">
         <v>1000000</v>
@@ -5825,13 +5822,13 @@
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0</v>
@@ -6128,10 +6125,10 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="5.856" bestFit="true" customWidth="true" style="0"/>
@@ -6346,7 +6343,7 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
@@ -6354,13 +6351,13 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -6414,7 +6411,7 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
@@ -6422,13 +6419,13 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -6482,7 +6479,7 @@
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="1">
@@ -6490,13 +6487,13 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -6550,7 +6547,7 @@
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="1">
@@ -6558,13 +6555,13 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -6618,7 +6615,7 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="1">
@@ -6626,13 +6623,13 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -6686,7 +6683,7 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="1">
@@ -6694,13 +6691,13 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -6754,7 +6751,7 @@
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="1">
@@ -6762,13 +6759,13 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -6822,7 +6819,7 @@
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1">
@@ -6830,13 +6827,13 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -6890,7 +6887,7 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="1">
@@ -6898,13 +6895,13 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -6958,7 +6955,7 @@
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="1">
@@ -6966,13 +6963,13 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -7026,7 +7023,7 @@
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="1">
@@ -7034,13 +7031,13 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -7094,7 +7091,7 @@
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="1">
@@ -7102,13 +7099,13 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -7162,7 +7159,7 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
@@ -7170,13 +7167,13 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -7230,7 +7227,7 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="1">
@@ -7238,13 +7235,13 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -7298,7 +7295,7 @@
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
@@ -7306,13 +7303,13 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -7366,7 +7363,7 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
@@ -7374,13 +7371,13 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -7434,7 +7431,7 @@
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
@@ -7442,13 +7439,13 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -7502,7 +7499,7 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
@@ -7510,13 +7507,13 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -7570,7 +7567,7 @@
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
@@ -7578,13 +7575,13 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -7638,7 +7635,7 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
@@ -7646,13 +7643,13 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -7706,7 +7703,7 @@
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
@@ -7714,13 +7711,13 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -7774,7 +7771,7 @@
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
@@ -7782,13 +7779,13 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -7842,7 +7839,7 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
@@ -7850,13 +7847,13 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -7910,7 +7907,7 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
@@ -7918,13 +7915,13 @@
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -7978,7 +7975,7 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
@@ -7986,13 +7983,13 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -8046,7 +8043,7 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
@@ -8054,13 +8051,13 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -8114,7 +8111,7 @@
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
@@ -8122,13 +8119,13 @@
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -8182,7 +8179,7 @@
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
@@ -8190,13 +8187,13 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -8250,7 +8247,7 @@
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
@@ -8258,13 +8255,13 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -8318,7 +8315,7 @@
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
@@ -8326,13 +8323,13 @@
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -8386,7 +8383,7 @@
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
@@ -8394,13 +8391,13 @@
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -8454,7 +8451,7 @@
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="1">
@@ -8462,13 +8459,13 @@
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD37">
         <v>0</v>
@@ -8522,7 +8519,7 @@
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
@@ -8530,13 +8527,13 @@
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -8590,7 +8587,7 @@
       </c>
       <c r="V39" s="9"/>
       <c r="W39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="8">
@@ -8598,13 +8595,13 @@
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD39" s="7">
         <v>0</v>
@@ -8659,7 +8656,7 @@
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
@@ -8667,13 +8664,13 @@
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD40" s="10">
         <v>0</v>
@@ -8728,7 +8725,7 @@
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
@@ -8736,13 +8733,13 @@
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD41">
         <v>0</v>
@@ -8796,7 +8793,7 @@
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
@@ -8804,13 +8801,13 @@
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD42">
         <v>0</v>
@@ -8864,7 +8861,7 @@
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
@@ -8872,13 +8869,13 @@
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD43">
         <v>0</v>
@@ -8932,7 +8929,7 @@
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
@@ -8940,13 +8937,13 @@
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD44">
         <v>0</v>
@@ -9000,7 +8997,7 @@
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
@@ -9008,13 +9005,13 @@
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD45">
         <v>0</v>
@@ -9068,7 +9065,7 @@
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
@@ -9076,13 +9073,13 @@
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD46">
         <v>0</v>
@@ -9136,7 +9133,7 @@
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
@@ -9144,13 +9141,13 @@
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD47">
         <v>0</v>
@@ -9204,7 +9201,7 @@
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
@@ -9212,13 +9209,13 @@
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD48">
         <v>0</v>
@@ -9272,7 +9269,7 @@
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
@@ -9280,13 +9277,13 @@
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD49">
         <v>0</v>
@@ -9340,7 +9337,7 @@
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
@@ -9348,13 +9345,13 @@
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD50">
         <v>0</v>
@@ -9408,7 +9405,7 @@
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
@@ -9416,13 +9413,13 @@
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD51">
         <v>0</v>
@@ -9466,10 +9463,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S52" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T52" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U52" s="6">
         <v>1000000</v>
@@ -9478,7 +9475,7 @@
         <v>1</v>
       </c>
       <c r="W52" s="1">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X52" s="2">
         <v>0.01</v>
@@ -9488,13 +9485,13 @@
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD52">
         <v>0</v>
@@ -9538,10 +9535,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S53" s="13">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T53" s="13">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U53" s="13">
         <v>1000000</v>
@@ -9550,7 +9547,7 @@
         <v>1</v>
       </c>
       <c r="W53" s="13">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X53" s="14">
         <v>0.01</v>
@@ -9560,13 +9557,13 @@
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0</v>
@@ -9574,7 +9571,7 @@
       <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
       <c r="AG53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:33">
@@ -9611,10 +9608,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S54" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T54" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U54" s="6">
         <v>1000000</v>
@@ -9623,7 +9620,7 @@
         <v>1</v>
       </c>
       <c r="W54" s="1">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X54" s="2">
         <v>0.01</v>
@@ -9633,20 +9630,20 @@
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD54">
         <v>0</v>
       </c>
       <c r="AE54"/>
       <c r="AG54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:33">
@@ -9683,10 +9680,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S55" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T55" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U55" s="6">
         <v>1000000</v>
@@ -9695,7 +9692,7 @@
         <v>1</v>
       </c>
       <c r="W55" s="1">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X55" s="2">
         <v>0.01</v>
@@ -9705,20 +9702,20 @@
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD55">
         <v>0</v>
       </c>
       <c r="AE55"/>
       <c r="AG55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:33">
@@ -9755,10 +9752,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S56" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T56" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U56" s="6">
         <v>1000000</v>
@@ -9767,7 +9764,7 @@
         <v>1</v>
       </c>
       <c r="W56" s="1">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X56" s="2">
         <v>0.01</v>
@@ -9777,20 +9774,20 @@
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD56">
         <v>0</v>
       </c>
       <c r="AE56"/>
       <c r="AG56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:33">
@@ -9827,10 +9824,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S57" s="13">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T57" s="13">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U57" s="13">
         <v>1000000</v>
@@ -9839,7 +9836,7 @@
         <v>1</v>
       </c>
       <c r="W57" s="13">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X57" s="14">
         <v>0.01</v>
@@ -9849,13 +9846,13 @@
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0</v>
@@ -9863,7 +9860,7 @@
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
       <c r="AG57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:33">
@@ -9900,10 +9897,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S58" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T58" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U58" s="6">
         <v>1000000</v>
@@ -9912,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="W58" s="1">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X58" s="2">
         <v>0.01</v>
@@ -9922,20 +9919,20 @@
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD58">
         <v>0</v>
       </c>
       <c r="AE58"/>
       <c r="AG58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:33">
@@ -9972,10 +9969,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S59" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T59" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U59" s="6">
         <v>1000000</v>
@@ -9984,7 +9981,7 @@
         <v>1</v>
       </c>
       <c r="W59" s="1">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X59" s="2">
         <v>0.01</v>
@@ -9994,20 +9991,20 @@
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD59">
         <v>0</v>
       </c>
       <c r="AE59"/>
       <c r="AG59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:33">
@@ -10044,10 +10041,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S60" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T60" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U60" s="6">
         <v>1000000</v>
@@ -10056,7 +10053,7 @@
         <v>1</v>
       </c>
       <c r="W60" s="1">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X60" s="2">
         <v>0.01</v>
@@ -10066,20 +10063,20 @@
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD60">
         <v>0</v>
       </c>
       <c r="AE60"/>
       <c r="AG60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:33">
@@ -10116,10 +10113,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S61" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T61" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U61" s="6">
         <v>1000000</v>
@@ -10128,7 +10125,7 @@
         <v>1</v>
       </c>
       <c r="W61" s="1">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X61" s="2">
         <v>0.01</v>
@@ -10138,20 +10135,20 @@
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD61">
         <v>0</v>
       </c>
       <c r="AE61"/>
       <c r="AG61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:33">
@@ -10188,10 +10185,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S62" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U62" s="6">
         <v>1000000</v>
@@ -10200,7 +10197,7 @@
         <v>1</v>
       </c>
       <c r="W62" s="1">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X62" s="2">
         <v>0.01</v>
@@ -10210,20 +10207,20 @@
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD62">
         <v>0</v>
       </c>
       <c r="AE62"/>
       <c r="AG62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:33">
@@ -10260,10 +10257,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S63" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T63" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U63" s="6">
         <v>1000000</v>
@@ -10272,7 +10269,7 @@
         <v>1</v>
       </c>
       <c r="W63" s="1">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X63" s="2">
         <v>0.01</v>
@@ -10282,20 +10279,20 @@
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD63">
         <v>0</v>
       </c>
       <c r="AE63"/>
       <c r="AG63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:33">
@@ -10332,10 +10329,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S64" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T64" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U64" s="6">
         <v>1000000</v>
@@ -10344,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="W64" s="1">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X64" s="2">
         <v>0.01</v>
@@ -10354,20 +10351,20 @@
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD64">
         <v>0</v>
       </c>
       <c r="AE64"/>
       <c r="AG64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:33">
@@ -10404,10 +10401,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S65" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T65" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U65" s="6">
         <v>1000000</v>
@@ -10416,7 +10413,7 @@
         <v>1</v>
       </c>
       <c r="W65" s="1">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X65" s="2">
         <v>0.01</v>
@@ -10426,20 +10423,20 @@
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD65">
         <v>0</v>
       </c>
       <c r="AE65"/>
       <c r="AG65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:33">
@@ -10476,10 +10473,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S66" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T66" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U66" s="6">
         <v>1000000</v>
@@ -10488,7 +10485,7 @@
         <v>1</v>
       </c>
       <c r="W66" s="1">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X66" s="2">
         <v>0.01</v>
@@ -10498,20 +10495,20 @@
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD66">
         <v>0</v>
       </c>
       <c r="AE66"/>
       <c r="AG66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:33">
@@ -10548,10 +10545,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S67" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T67" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U67" s="6">
         <v>1000000</v>
@@ -10560,7 +10557,7 @@
         <v>1</v>
       </c>
       <c r="W67" s="1">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X67" s="2">
         <v>0.01</v>
@@ -10570,20 +10567,20 @@
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD67">
         <v>0</v>
       </c>
       <c r="AE67"/>
       <c r="AG67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -10620,10 +10617,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S68" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T68" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U68" s="6">
         <v>1000000</v>
@@ -10632,7 +10629,7 @@
         <v>1</v>
       </c>
       <c r="W68" s="1">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X68" s="2">
         <v>0.01</v>
@@ -10642,20 +10639,20 @@
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD68">
         <v>0</v>
       </c>
       <c r="AE68"/>
       <c r="AG68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:33">
@@ -10692,10 +10689,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S69" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T69" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U69" s="6">
         <v>1000000</v>
@@ -10704,7 +10701,7 @@
         <v>1</v>
       </c>
       <c r="W69" s="1">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X69" s="2">
         <v>0.01</v>
@@ -10714,20 +10711,20 @@
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD69">
         <v>0</v>
       </c>
       <c r="AE69"/>
       <c r="AG69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:33">
@@ -10764,10 +10761,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S70" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T70" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U70" s="6">
         <v>1000000</v>
@@ -10776,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="W70" s="1">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X70" s="2">
         <v>0.01</v>
@@ -10786,20 +10783,20 @@
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD70">
         <v>0</v>
       </c>
       <c r="AE70"/>
       <c r="AG70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:33">
@@ -10836,10 +10833,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S71" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T71" s="1">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U71" s="6">
         <v>1000000</v>
@@ -10848,7 +10845,7 @@
         <v>1</v>
       </c>
       <c r="W71" s="1">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X71" s="2">
         <v>0.01</v>
@@ -10858,20 +10855,20 @@
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD71">
         <v>0</v>
       </c>
       <c r="AE71"/>
       <c r="AG71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:33">
@@ -10908,10 +10905,10 @@
         <v>1000000.0</v>
       </c>
       <c r="S72" s="5">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="T72" s="5">
-        <v>1000000.0</v>
+        <v>1</v>
       </c>
       <c r="U72" s="5">
         <v>1000000</v>
@@ -10920,7 +10917,7 @@
         <v>1</v>
       </c>
       <c r="W72" s="5">
-        <v>10000.0</v>
+        <v>0</v>
       </c>
       <c r="X72" s="16">
         <v>0.01</v>
@@ -10930,13 +10927,13 @@
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0</v>
@@ -10944,7 +10941,7 @@
       <c r="AE72" s="15"/>
       <c r="AF72" s="15"/>
       <c r="AG72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:33">
